--- a/software_optimization.xlsx
+++ b/software_optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xypher\Desktop\master\高等计算机系统结构\GEMM-software-and-hardware-optimization-based-on-gem5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1C73B-A5F5-4470-A0D0-EBDC754C19E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BF8A17-091F-436D-8030-5DB6382940EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Baseline</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,26 @@
   </si>
   <si>
     <t>Run Time/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numBranches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">l1 dcache miss rate </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l2 cache miss rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l1 dcache access num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l2 cache access num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,64 +399,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="11.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.49839800000000001</v>
       </c>
+      <c r="C2" s="2">
+        <v>2199733</v>
+      </c>
+      <c r="D2" s="2">
+        <v>40295667</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.6419999999999998E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2273474</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.93229300000000004</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>0.49175999999999997</v>
       </c>
+      <c r="C3" s="2">
+        <v>365064</v>
+      </c>
+      <c r="D3" s="2">
+        <v>34791129</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.5346000000000001E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2273477</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.93229300000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>0.41759200000000002</v>
       </c>
+      <c r="C4" s="2">
+        <v>4518345</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45016796</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.0622E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2278853</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.8002999999999998E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>0.300736</v>
       </c>
+      <c r="C5" s="2">
+        <v>2200239</v>
+      </c>
+      <c r="D5" s="2">
+        <v>40296389</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.1660000000000005E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>369349</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.37201099999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>0.29848400000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2216954</v>
+      </c>
+      <c r="D6" s="2">
+        <v>36348868</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.2399999999999998E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>154116</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.998255</v>
       </c>
     </row>
   </sheetData>
